--- a/Data/LUT_abbr/ROI_LookUpTable.xlsx
+++ b/Data/LUT_abbr/ROI_LookUpTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="864">
   <si>
     <t>Segmentation</t>
   </si>
@@ -622,7 +622,7 @@
     <t>L. Lat. Forb. WM</t>
   </si>
   <si>
-    <t>L. Mid. Forb.</t>
+    <t>L. Mid. Forb. WM</t>
   </si>
   <si>
     <t>L. Supramarginal WM</t>
@@ -826,9 +826,6 @@
     <t>R. Fornix (Column&amp;Body)</t>
   </si>
   <si>
-    <t>L. Mid. Forb. WM</t>
-  </si>
-  <si>
     <t>Right Accumbens Area</t>
   </si>
   <si>
@@ -1399,7 +1396,7 @@
     <t>Left Lateral Fronto-orbital WM</t>
   </si>
   <si>
-    <t>Left Middle Fronto-orbital</t>
+    <t>Left Middle Fronto-orbital WM</t>
   </si>
   <si>
     <t>Left Supramarginal WM</t>
@@ -1610,9 +1607,6 @@
   </si>
   <si>
     <t>Right Fornix (Column&amp;Body)</t>
-  </si>
-  <si>
-    <t>Left Middle Fronto-orbital WM</t>
   </si>
   <si>
     <t>Right Pontine Crossing Tract (a Part of MCP)</t>
@@ -3006,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3023,7 +3017,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3037,10 +3031,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3054,10 +3048,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3071,10 +3065,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3088,10 +3082,10 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3108,7 +3102,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3122,10 +3116,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3139,10 +3133,10 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3156,10 +3150,10 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3173,10 +3167,10 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3190,10 +3184,10 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3207,10 +3201,10 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3224,10 +3218,10 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3241,10 +3235,10 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3258,10 +3252,10 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3275,10 +3269,10 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3292,10 +3286,10 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3309,10 +3303,10 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3326,10 +3320,10 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3343,10 +3337,10 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3360,10 +3354,10 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E23" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3377,10 +3371,10 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3394,10 +3388,10 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E25" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3411,10 +3405,10 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E26" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3428,10 +3422,10 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E27" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3445,10 +3439,10 @@
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3462,10 +3456,10 @@
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E29" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3479,10 +3473,10 @@
         <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3496,10 +3490,10 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3513,10 +3507,10 @@
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3530,10 +3524,10 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E33" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3547,10 +3541,10 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E34" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3564,10 +3558,10 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E35" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3581,10 +3575,10 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E36" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3598,10 +3592,10 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E37" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3615,10 +3609,10 @@
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3632,10 +3626,10 @@
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E39" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3649,10 +3643,10 @@
         <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E40" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3666,10 +3660,10 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E41" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3683,10 +3677,10 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E42" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3700,10 +3694,10 @@
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E43" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3717,10 +3711,10 @@
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E44" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3734,10 +3728,10 @@
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3751,10 +3745,10 @@
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E46" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3768,10 +3762,10 @@
         <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E47" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3785,10 +3779,10 @@
         <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E48" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3802,10 +3796,10 @@
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E49" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3819,10 +3813,10 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E50" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3836,10 +3830,10 @@
         <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E51" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3853,10 +3847,10 @@
         <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E52" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3870,10 +3864,10 @@
         <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E53" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3887,10 +3881,10 @@
         <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E54" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3904,10 +3898,10 @@
         <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E55" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3921,10 +3915,10 @@
         <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E56" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3938,10 +3932,10 @@
         <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E57" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3955,10 +3949,10 @@
         <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E58" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3972,10 +3966,10 @@
         <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3989,10 +3983,10 @@
         <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E60" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4006,10 +4000,10 @@
         <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E61" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4023,10 +4017,10 @@
         <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E62" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4040,10 +4034,10 @@
         <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E63" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4057,10 +4051,10 @@
         <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E64" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4074,10 +4068,10 @@
         <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E65" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4091,10 +4085,10 @@
         <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E66" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4108,10 +4102,10 @@
         <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E67" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4125,10 +4119,10 @@
         <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E68" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4142,10 +4136,10 @@
         <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E69" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4159,10 +4153,10 @@
         <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E70" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4176,10 +4170,10 @@
         <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E71" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4193,10 +4187,10 @@
         <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E72" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4210,10 +4204,10 @@
         <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E73" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4227,10 +4221,10 @@
         <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E74" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4244,10 +4238,10 @@
         <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E75" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4261,10 +4255,10 @@
         <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E76" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4278,10 +4272,10 @@
         <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E77" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4295,10 +4289,10 @@
         <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E78" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4312,10 +4306,10 @@
         <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E79" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4329,10 +4323,10 @@
         <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E80" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4346,10 +4340,10 @@
         <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E81" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4363,10 +4357,10 @@
         <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E82" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4380,10 +4374,10 @@
         <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E83" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4397,10 +4391,10 @@
         <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E84" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4414,10 +4408,10 @@
         <v>92</v>
       </c>
       <c r="D85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E85" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4431,10 +4425,10 @@
         <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E86" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4448,10 +4442,10 @@
         <v>94</v>
       </c>
       <c r="D87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E87" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4465,10 +4459,10 @@
         <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E88" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4482,10 +4476,10 @@
         <v>96</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E89" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4499,10 +4493,10 @@
         <v>97</v>
       </c>
       <c r="D90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E90" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4516,10 +4510,10 @@
         <v>98</v>
       </c>
       <c r="D91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E91" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4533,10 +4527,10 @@
         <v>99</v>
       </c>
       <c r="D92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E92" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4550,10 +4544,10 @@
         <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E93" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4567,10 +4561,10 @@
         <v>101</v>
       </c>
       <c r="D94" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E94" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4584,10 +4578,10 @@
         <v>102</v>
       </c>
       <c r="D95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E95" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4601,10 +4595,10 @@
         <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E96" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4618,10 +4612,10 @@
         <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E97" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4635,10 +4629,10 @@
         <v>105</v>
       </c>
       <c r="D98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E98" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4652,10 +4646,10 @@
         <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E99" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4669,10 +4663,10 @@
         <v>107</v>
       </c>
       <c r="D100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E100" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4686,10 +4680,10 @@
         <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4703,10 +4697,10 @@
         <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E102" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4720,10 +4714,10 @@
         <v>110</v>
       </c>
       <c r="D103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E103" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4737,10 +4731,10 @@
         <v>111</v>
       </c>
       <c r="D104" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E104" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4754,10 +4748,10 @@
         <v>112</v>
       </c>
       <c r="D105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E105" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4771,10 +4765,10 @@
         <v>113</v>
       </c>
       <c r="D106" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E106" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4788,10 +4782,10 @@
         <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E107" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4805,10 +4799,10 @@
         <v>115</v>
       </c>
       <c r="D108" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E108" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4822,10 +4816,10 @@
         <v>116</v>
       </c>
       <c r="D109" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E109" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4839,10 +4833,10 @@
         <v>117</v>
       </c>
       <c r="D110" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E110" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4856,10 +4850,10 @@
         <v>118</v>
       </c>
       <c r="D111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E111" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4873,10 +4867,10 @@
         <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E112" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4890,10 +4884,10 @@
         <v>120</v>
       </c>
       <c r="D113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E113" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4907,10 +4901,10 @@
         <v>121</v>
       </c>
       <c r="D114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E114" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4924,10 +4918,10 @@
         <v>122</v>
       </c>
       <c r="D115" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E115" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4941,10 +4935,10 @@
         <v>123</v>
       </c>
       <c r="D116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E116" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4958,10 +4952,10 @@
         <v>124</v>
       </c>
       <c r="D117" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E117" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4975,10 +4969,10 @@
         <v>125</v>
       </c>
       <c r="D118" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E118" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4992,10 +4986,10 @@
         <v>126</v>
       </c>
       <c r="D119" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E119" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5009,10 +5003,10 @@
         <v>127</v>
       </c>
       <c r="D120" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E120" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5026,10 +5020,10 @@
         <v>128</v>
       </c>
       <c r="D121" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E121" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5043,10 +5037,10 @@
         <v>129</v>
       </c>
       <c r="D122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E122" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5060,10 +5054,10 @@
         <v>130</v>
       </c>
       <c r="D123" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E123" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5077,10 +5071,10 @@
         <v>131</v>
       </c>
       <c r="D124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E124" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5094,10 +5088,10 @@
         <v>132</v>
       </c>
       <c r="D125" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E125" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5111,10 +5105,10 @@
         <v>133</v>
       </c>
       <c r="D126" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E126" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5128,10 +5122,10 @@
         <v>134</v>
       </c>
       <c r="D127" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E127" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5145,10 +5139,10 @@
         <v>135</v>
       </c>
       <c r="D128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E128" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5162,10 +5156,10 @@
         <v>136</v>
       </c>
       <c r="D129" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E129" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5179,10 +5173,10 @@
         <v>137</v>
       </c>
       <c r="D130" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E130" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5196,10 +5190,10 @@
         <v>138</v>
       </c>
       <c r="D131" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E131" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5213,10 +5207,10 @@
         <v>139</v>
       </c>
       <c r="D132" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E132" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5230,10 +5224,10 @@
         <v>140</v>
       </c>
       <c r="D133" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E133" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5247,10 +5241,10 @@
         <v>132</v>
       </c>
       <c r="D134" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E134" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5264,10 +5258,10 @@
         <v>141</v>
       </c>
       <c r="D135" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E135" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5281,10 +5275,10 @@
         <v>124</v>
       </c>
       <c r="D136" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E136" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5298,10 +5292,10 @@
         <v>80</v>
       </c>
       <c r="D137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E137" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5315,10 +5309,10 @@
         <v>142</v>
       </c>
       <c r="D138" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E138" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5332,10 +5326,10 @@
         <v>118</v>
       </c>
       <c r="D139" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E139" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5349,10 +5343,10 @@
         <v>112</v>
       </c>
       <c r="D140" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E140" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5366,10 +5360,10 @@
         <v>50</v>
       </c>
       <c r="D141" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E141" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5383,10 +5377,10 @@
         <v>104</v>
       </c>
       <c r="D142" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E142" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5400,10 +5394,10 @@
         <v>56</v>
       </c>
       <c r="D143" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E143" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5417,10 +5411,10 @@
         <v>72</v>
       </c>
       <c r="D144" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E144" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5434,10 +5428,10 @@
         <v>64</v>
       </c>
       <c r="D145" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E145" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5451,10 +5445,10 @@
         <v>106</v>
       </c>
       <c r="D146" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E146" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5468,10 +5462,10 @@
         <v>130</v>
       </c>
       <c r="D147" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E147" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5485,10 +5479,10 @@
         <v>68</v>
       </c>
       <c r="D148" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E148" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5502,10 +5496,10 @@
         <v>82</v>
       </c>
       <c r="D149" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E149" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5519,10 +5513,10 @@
         <v>58</v>
       </c>
       <c r="D150" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E150" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5536,10 +5530,10 @@
         <v>134</v>
       </c>
       <c r="D151" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E151" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5553,10 +5547,10 @@
         <v>70</v>
       </c>
       <c r="D152" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E152" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5570,10 +5564,10 @@
         <v>92</v>
       </c>
       <c r="D153" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E153" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5587,10 +5581,10 @@
         <v>143</v>
       </c>
       <c r="D154" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E154" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5604,10 +5598,10 @@
         <v>144</v>
       </c>
       <c r="D155" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E155" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5621,10 +5615,10 @@
         <v>128</v>
       </c>
       <c r="D156" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E156" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5638,10 +5632,10 @@
         <v>66</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E157" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5655,10 +5649,10 @@
         <v>145</v>
       </c>
       <c r="D158" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E158" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5672,10 +5666,10 @@
         <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E159" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5689,10 +5683,10 @@
         <v>25</v>
       </c>
       <c r="D160" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E160" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5706,10 +5700,10 @@
         <v>146</v>
       </c>
       <c r="D161" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E161" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5723,10 +5717,10 @@
         <v>147</v>
       </c>
       <c r="D162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E162" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5740,10 +5734,10 @@
         <v>148</v>
       </c>
       <c r="D163" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E163" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5757,10 +5751,10 @@
         <v>149</v>
       </c>
       <c r="D164" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E164" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5774,10 +5768,10 @@
         <v>150</v>
       </c>
       <c r="D165" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E165" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5791,10 +5785,10 @@
         <v>151</v>
       </c>
       <c r="D166" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E166" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5808,10 +5802,10 @@
         <v>152</v>
       </c>
       <c r="D167" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E167" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5825,10 +5819,10 @@
         <v>153</v>
       </c>
       <c r="D168" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E168" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5842,10 +5836,10 @@
         <v>154</v>
       </c>
       <c r="D169" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E169" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5859,10 +5853,10 @@
         <v>155</v>
       </c>
       <c r="D170" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E170" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5876,10 +5870,10 @@
         <v>156</v>
       </c>
       <c r="D171" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E171" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5893,10 +5887,10 @@
         <v>157</v>
       </c>
       <c r="D172" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E172" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5910,10 +5904,10 @@
         <v>158</v>
       </c>
       <c r="D173" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E173" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5927,10 +5921,10 @@
         <v>159</v>
       </c>
       <c r="D174" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E174" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5944,10 +5938,10 @@
         <v>160</v>
       </c>
       <c r="D175" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E175" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5961,10 +5955,10 @@
         <v>161</v>
       </c>
       <c r="D176" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E176" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5978,10 +5972,10 @@
         <v>162</v>
       </c>
       <c r="D177" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E177" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5995,10 +5989,10 @@
         <v>163</v>
       </c>
       <c r="D178" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E178" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6012,10 +6006,10 @@
         <v>164</v>
       </c>
       <c r="D179" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E179" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6029,10 +6023,10 @@
         <v>165</v>
       </c>
       <c r="D180" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E180" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6046,10 +6040,10 @@
         <v>166</v>
       </c>
       <c r="D181" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E181" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6063,10 +6057,10 @@
         <v>167</v>
       </c>
       <c r="D182" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E182" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6080,10 +6074,10 @@
         <v>168</v>
       </c>
       <c r="D183" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E183" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6097,10 +6091,10 @@
         <v>169</v>
       </c>
       <c r="D184" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E184" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6114,10 +6108,10 @@
         <v>170</v>
       </c>
       <c r="D185" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E185" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6131,10 +6125,10 @@
         <v>171</v>
       </c>
       <c r="D186" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E186" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6148,10 +6142,10 @@
         <v>172</v>
       </c>
       <c r="D187" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E187" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6165,10 +6159,10 @@
         <v>173</v>
       </c>
       <c r="D188" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E188" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6182,10 +6176,10 @@
         <v>174</v>
       </c>
       <c r="D189" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E189" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6199,10 +6193,10 @@
         <v>175</v>
       </c>
       <c r="D190" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6216,10 +6210,10 @@
         <v>176</v>
       </c>
       <c r="D191" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E191" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6233,10 +6227,10 @@
         <v>177</v>
       </c>
       <c r="D192" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E192" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6250,10 +6244,10 @@
         <v>33</v>
       </c>
       <c r="D193" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E193" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6267,10 +6261,10 @@
         <v>178</v>
       </c>
       <c r="D194" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E194" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6284,10 +6278,10 @@
         <v>179</v>
       </c>
       <c r="D195" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E195" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6301,10 +6295,10 @@
         <v>180</v>
       </c>
       <c r="D196" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E196" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6318,10 +6312,10 @@
         <v>181</v>
       </c>
       <c r="D197" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E197" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6335,10 +6329,10 @@
         <v>182</v>
       </c>
       <c r="D198" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E198" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6352,10 +6346,10 @@
         <v>183</v>
       </c>
       <c r="D199" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E199" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6369,10 +6363,10 @@
         <v>184</v>
       </c>
       <c r="D200" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E200" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6386,10 +6380,10 @@
         <v>185</v>
       </c>
       <c r="D201" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E201" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6403,10 +6397,10 @@
         <v>186</v>
       </c>
       <c r="D202" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E202" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6420,10 +6414,10 @@
         <v>187</v>
       </c>
       <c r="D203" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E203" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6437,10 +6431,10 @@
         <v>188</v>
       </c>
       <c r="D204" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E204" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6454,10 +6448,10 @@
         <v>189</v>
       </c>
       <c r="D205" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E205" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6471,10 +6465,10 @@
         <v>190</v>
       </c>
       <c r="D206" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E206" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6488,10 +6482,10 @@
         <v>191</v>
       </c>
       <c r="D207" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E207" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6505,10 +6499,10 @@
         <v>192</v>
       </c>
       <c r="D208" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E208" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6522,10 +6516,10 @@
         <v>193</v>
       </c>
       <c r="D209" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E209" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6539,10 +6533,10 @@
         <v>194</v>
       </c>
       <c r="D210" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E210" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6556,10 +6550,10 @@
         <v>195</v>
       </c>
       <c r="D211" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E211" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6573,10 +6567,10 @@
         <v>196</v>
       </c>
       <c r="D212" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E212" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6590,10 +6584,10 @@
         <v>197</v>
       </c>
       <c r="D213" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E213" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6607,10 +6601,10 @@
         <v>198</v>
       </c>
       <c r="D214" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E214" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6624,10 +6618,10 @@
         <v>199</v>
       </c>
       <c r="D215" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E215" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6641,10 +6635,10 @@
         <v>200</v>
       </c>
       <c r="D216" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E216" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6658,10 +6652,10 @@
         <v>201</v>
       </c>
       <c r="D217" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E217" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6675,10 +6669,10 @@
         <v>202</v>
       </c>
       <c r="D218" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E218" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6692,10 +6686,10 @@
         <v>203</v>
       </c>
       <c r="D219" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E219" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6709,10 +6703,10 @@
         <v>204</v>
       </c>
       <c r="D220" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E220" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6726,10 +6720,10 @@
         <v>21</v>
       </c>
       <c r="D221" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E221" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6743,10 +6737,10 @@
         <v>131</v>
       </c>
       <c r="D222" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E222" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6760,10 +6754,10 @@
         <v>205</v>
       </c>
       <c r="D223" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E223" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6777,10 +6771,10 @@
         <v>123</v>
       </c>
       <c r="D224" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E224" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6794,10 +6788,10 @@
         <v>79</v>
       </c>
       <c r="D225" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E225" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6811,10 +6805,10 @@
         <v>206</v>
       </c>
       <c r="D226" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E226" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6828,10 +6822,10 @@
         <v>117</v>
       </c>
       <c r="D227" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E227" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6845,10 +6839,10 @@
         <v>111</v>
       </c>
       <c r="D228" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E228" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6862,10 +6856,10 @@
         <v>49</v>
       </c>
       <c r="D229" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E229" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6879,10 +6873,10 @@
         <v>103</v>
       </c>
       <c r="D230" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E230" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6896,10 +6890,10 @@
         <v>55</v>
       </c>
       <c r="D231" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E231" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6913,10 +6907,10 @@
         <v>71</v>
       </c>
       <c r="D232" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E232" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6930,10 +6924,10 @@
         <v>63</v>
       </c>
       <c r="D233" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E233" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6947,10 +6941,10 @@
         <v>105</v>
       </c>
       <c r="D234" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E234" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6964,10 +6958,10 @@
         <v>129</v>
       </c>
       <c r="D235" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E235" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6981,10 +6975,10 @@
         <v>67</v>
       </c>
       <c r="D236" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E236" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6998,10 +6992,10 @@
         <v>81</v>
       </c>
       <c r="D237" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E237" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7015,10 +7009,10 @@
         <v>57</v>
       </c>
       <c r="D238" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E238" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7032,10 +7026,10 @@
         <v>133</v>
       </c>
       <c r="D239" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E239" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7049,10 +7043,10 @@
         <v>69</v>
       </c>
       <c r="D240" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E240" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7066,10 +7060,10 @@
         <v>91</v>
       </c>
       <c r="D241" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E241" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7083,10 +7077,10 @@
         <v>207</v>
       </c>
       <c r="D242" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E242" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7100,10 +7094,10 @@
         <v>208</v>
       </c>
       <c r="D243" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E243" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7117,10 +7111,10 @@
         <v>127</v>
       </c>
       <c r="D244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E244" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7134,10 +7128,10 @@
         <v>65</v>
       </c>
       <c r="D245" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E245" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7151,10 +7145,10 @@
         <v>209</v>
       </c>
       <c r="D246" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E246" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7168,10 +7162,10 @@
         <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E247" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7185,10 +7179,10 @@
         <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E248" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7202,10 +7196,10 @@
         <v>210</v>
       </c>
       <c r="D249" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E249" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7219,10 +7213,10 @@
         <v>211</v>
       </c>
       <c r="D250" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E250" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7236,10 +7230,10 @@
         <v>212</v>
       </c>
       <c r="D251" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E251" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7253,10 +7247,10 @@
         <v>213</v>
       </c>
       <c r="D252" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E252" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7270,10 +7264,10 @@
         <v>214</v>
       </c>
       <c r="D253" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E253" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7287,10 +7281,10 @@
         <v>215</v>
       </c>
       <c r="D254" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E254" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7304,10 +7298,10 @@
         <v>216</v>
       </c>
       <c r="D255" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E255" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7321,10 +7315,10 @@
         <v>217</v>
       </c>
       <c r="D256" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E256" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7338,10 +7332,10 @@
         <v>218</v>
       </c>
       <c r="D257" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E257" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7355,10 +7349,10 @@
         <v>219</v>
       </c>
       <c r="D258" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E258" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7372,10 +7366,10 @@
         <v>220</v>
       </c>
       <c r="D259" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E259" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7389,10 +7383,10 @@
         <v>221</v>
       </c>
       <c r="D260" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E260" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7406,10 +7400,10 @@
         <v>222</v>
       </c>
       <c r="D261" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E261" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7423,10 +7417,10 @@
         <v>223</v>
       </c>
       <c r="D262" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E262" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7440,10 +7434,10 @@
         <v>224</v>
       </c>
       <c r="D263" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E263" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7457,10 +7451,10 @@
         <v>225</v>
       </c>
       <c r="D264" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E264" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7474,10 +7468,10 @@
         <v>226</v>
       </c>
       <c r="D265" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E265" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7491,10 +7485,10 @@
         <v>227</v>
       </c>
       <c r="D266" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E266" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7508,10 +7502,10 @@
         <v>228</v>
       </c>
       <c r="D267" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E267" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7525,10 +7519,10 @@
         <v>229</v>
       </c>
       <c r="D268" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E268" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7542,10 +7536,10 @@
         <v>230</v>
       </c>
       <c r="D269" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E269" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7559,10 +7553,10 @@
         <v>231</v>
       </c>
       <c r="D270" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E270" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7576,10 +7570,10 @@
         <v>232</v>
       </c>
       <c r="D271" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E271" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7593,10 +7587,10 @@
         <v>233</v>
       </c>
       <c r="D272" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E272" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7610,10 +7604,10 @@
         <v>234</v>
       </c>
       <c r="D273" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E273" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7627,10 +7621,10 @@
         <v>235</v>
       </c>
       <c r="D274" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E274" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7644,10 +7638,10 @@
         <v>236</v>
       </c>
       <c r="D275" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E275" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7661,10 +7655,10 @@
         <v>237</v>
       </c>
       <c r="D276" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E276" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7678,10 +7672,10 @@
         <v>238</v>
       </c>
       <c r="D277" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E277" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7695,10 +7689,10 @@
         <v>239</v>
       </c>
       <c r="D278" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E278" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7712,10 +7706,10 @@
         <v>240</v>
       </c>
       <c r="D279" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E279" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7729,10 +7723,10 @@
         <v>241</v>
       </c>
       <c r="D280" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E280" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7746,10 +7740,10 @@
         <v>32</v>
       </c>
       <c r="D281" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E281" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7763,10 +7757,10 @@
         <v>242</v>
       </c>
       <c r="D282" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E282" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7780,10 +7774,10 @@
         <v>243</v>
       </c>
       <c r="D283" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E283" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7797,10 +7791,10 @@
         <v>244</v>
       </c>
       <c r="D284" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E284" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7814,10 +7808,10 @@
         <v>245</v>
       </c>
       <c r="D285" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E285" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7831,10 +7825,10 @@
         <v>246</v>
       </c>
       <c r="D286" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E286" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7848,10 +7842,10 @@
         <v>247</v>
       </c>
       <c r="D287" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E287" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7865,10 +7859,10 @@
         <v>248</v>
       </c>
       <c r="D288" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E288" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7882,10 +7876,10 @@
         <v>249</v>
       </c>
       <c r="D289" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E289" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7899,10 +7893,10 @@
         <v>250</v>
       </c>
       <c r="D290" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E290" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7916,10 +7910,10 @@
         <v>251</v>
       </c>
       <c r="D291" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E291" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7933,10 +7927,10 @@
         <v>252</v>
       </c>
       <c r="D292" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E292" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7950,10 +7944,10 @@
         <v>253</v>
       </c>
       <c r="D293" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E293" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7967,10 +7961,10 @@
         <v>254</v>
       </c>
       <c r="D294" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E294" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7984,10 +7978,10 @@
         <v>255</v>
       </c>
       <c r="D295" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E295" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8001,10 +7995,10 @@
         <v>256</v>
       </c>
       <c r="D296" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E296" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8018,10 +8012,10 @@
         <v>257</v>
       </c>
       <c r="D297" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E297" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8035,10 +8029,10 @@
         <v>258</v>
       </c>
       <c r="D298" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E298" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8052,10 +8046,10 @@
         <v>259</v>
       </c>
       <c r="D299" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E299" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8069,10 +8063,10 @@
         <v>260</v>
       </c>
       <c r="D300" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E300" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8086,10 +8080,10 @@
         <v>261</v>
       </c>
       <c r="D301" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E301" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8103,10 +8097,10 @@
         <v>262</v>
       </c>
       <c r="D302" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E302" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8120,10 +8114,10 @@
         <v>263</v>
       </c>
       <c r="D303" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E303" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8137,10 +8131,10 @@
         <v>264</v>
       </c>
       <c r="D304" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E304" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8154,10 +8148,10 @@
         <v>265</v>
       </c>
       <c r="D305" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E305" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8171,10 +8165,10 @@
         <v>266</v>
       </c>
       <c r="D306" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E306" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8188,10 +8182,10 @@
         <v>267</v>
       </c>
       <c r="D307" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E307" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8205,10 +8199,10 @@
         <v>268</v>
       </c>
       <c r="D308" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E308" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8222,10 +8216,10 @@
         <v>20</v>
       </c>
       <c r="D309" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E309" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8239,10 +8233,10 @@
         <v>132</v>
       </c>
       <c r="D310" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E310" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8256,10 +8250,10 @@
         <v>141</v>
       </c>
       <c r="D311" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E311" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8273,10 +8267,10 @@
         <v>124</v>
       </c>
       <c r="D312" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E312" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8290,10 +8284,10 @@
         <v>80</v>
       </c>
       <c r="D313" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E313" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8307,10 +8301,10 @@
         <v>142</v>
       </c>
       <c r="D314" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E314" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8324,10 +8318,10 @@
         <v>118</v>
       </c>
       <c r="D315" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E315" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8341,10 +8335,10 @@
         <v>112</v>
       </c>
       <c r="D316" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E316" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8358,10 +8352,10 @@
         <v>50</v>
       </c>
       <c r="D317" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E317" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8375,10 +8369,10 @@
         <v>104</v>
       </c>
       <c r="D318" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E318" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8392,10 +8386,10 @@
         <v>56</v>
       </c>
       <c r="D319" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E319" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8409,10 +8403,10 @@
         <v>72</v>
       </c>
       <c r="D320" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E320" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8426,10 +8420,10 @@
         <v>64</v>
       </c>
       <c r="D321" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8443,10 +8437,10 @@
         <v>106</v>
       </c>
       <c r="D322" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E322" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8460,10 +8454,10 @@
         <v>130</v>
       </c>
       <c r="D323" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E323" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8477,10 +8471,10 @@
         <v>68</v>
       </c>
       <c r="D324" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E324" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8494,10 +8488,10 @@
         <v>82</v>
       </c>
       <c r="D325" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E325" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8511,10 +8505,10 @@
         <v>58</v>
       </c>
       <c r="D326" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E326" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8528,10 +8522,10 @@
         <v>134</v>
       </c>
       <c r="D327" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E327" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8545,10 +8539,10 @@
         <v>70</v>
       </c>
       <c r="D328" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E328" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8562,10 +8556,10 @@
         <v>92</v>
       </c>
       <c r="D329" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E329" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8579,10 +8573,10 @@
         <v>143</v>
       </c>
       <c r="D330" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E330" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8596,10 +8590,10 @@
         <v>144</v>
       </c>
       <c r="D331" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E331" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8613,10 +8607,10 @@
         <v>128</v>
       </c>
       <c r="D332" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E332" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8630,10 +8624,10 @@
         <v>66</v>
       </c>
       <c r="D333" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E333" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8647,10 +8641,10 @@
         <v>145</v>
       </c>
       <c r="D334" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E334" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8664,10 +8658,10 @@
         <v>14</v>
       </c>
       <c r="D335" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E335" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8681,10 +8675,10 @@
         <v>25</v>
       </c>
       <c r="D336" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E336" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8698,10 +8692,10 @@
         <v>146</v>
       </c>
       <c r="D337" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E337" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8715,10 +8709,10 @@
         <v>147</v>
       </c>
       <c r="D338" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E338" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8732,10 +8726,10 @@
         <v>148</v>
       </c>
       <c r="D339" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E339" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8749,10 +8743,10 @@
         <v>149</v>
       </c>
       <c r="D340" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E340" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8766,10 +8760,10 @@
         <v>150</v>
       </c>
       <c r="D341" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E341" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8783,10 +8777,10 @@
         <v>151</v>
       </c>
       <c r="D342" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E342" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8800,10 +8794,10 @@
         <v>152</v>
       </c>
       <c r="D343" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E343" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8817,10 +8811,10 @@
         <v>153</v>
       </c>
       <c r="D344" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E344" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8834,10 +8828,10 @@
         <v>154</v>
       </c>
       <c r="D345" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E345" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8851,10 +8845,10 @@
         <v>155</v>
       </c>
       <c r="D346" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E346" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8868,10 +8862,10 @@
         <v>156</v>
       </c>
       <c r="D347" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E347" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8885,10 +8879,10 @@
         <v>157</v>
       </c>
       <c r="D348" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E348" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8902,10 +8896,10 @@
         <v>158</v>
       </c>
       <c r="D349" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E349" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8919,10 +8913,10 @@
         <v>159</v>
       </c>
       <c r="D350" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E350" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8936,10 +8930,10 @@
         <v>160</v>
       </c>
       <c r="D351" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E351" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8953,10 +8947,10 @@
         <v>161</v>
       </c>
       <c r="D352" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E352" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8970,10 +8964,10 @@
         <v>162</v>
       </c>
       <c r="D353" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E353" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8987,10 +8981,10 @@
         <v>163</v>
       </c>
       <c r="D354" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E354" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9004,10 +8998,10 @@
         <v>164</v>
       </c>
       <c r="D355" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E355" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9021,10 +9015,10 @@
         <v>165</v>
       </c>
       <c r="D356" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E356" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9038,10 +9032,10 @@
         <v>166</v>
       </c>
       <c r="D357" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E357" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9055,10 +9049,10 @@
         <v>167</v>
       </c>
       <c r="D358" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E358" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9072,10 +9066,10 @@
         <v>168</v>
       </c>
       <c r="D359" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E359" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9089,10 +9083,10 @@
         <v>169</v>
       </c>
       <c r="D360" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E360" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9106,10 +9100,10 @@
         <v>170</v>
       </c>
       <c r="D361" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E361" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9123,10 +9117,10 @@
         <v>171</v>
       </c>
       <c r="D362" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E362" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9140,10 +9134,10 @@
         <v>172</v>
       </c>
       <c r="D363" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E363" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9157,10 +9151,10 @@
         <v>173</v>
       </c>
       <c r="D364" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E364" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9174,10 +9168,10 @@
         <v>174</v>
       </c>
       <c r="D365" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E365" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9191,10 +9185,10 @@
         <v>175</v>
       </c>
       <c r="D366" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E366" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9208,10 +9202,10 @@
         <v>176</v>
       </c>
       <c r="D367" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E367" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9225,10 +9219,10 @@
         <v>177</v>
       </c>
       <c r="D368" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E368" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9242,10 +9236,10 @@
         <v>33</v>
       </c>
       <c r="D369" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9259,10 +9253,10 @@
         <v>178</v>
       </c>
       <c r="D370" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E370" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9276,10 +9270,10 @@
         <v>179</v>
       </c>
       <c r="D371" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E371" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9293,10 +9287,10 @@
         <v>180</v>
       </c>
       <c r="D372" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E372" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9310,10 +9304,10 @@
         <v>181</v>
       </c>
       <c r="D373" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E373" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9327,10 +9321,10 @@
         <v>182</v>
       </c>
       <c r="D374" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E374" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9344,10 +9338,10 @@
         <v>131</v>
       </c>
       <c r="D375" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E375" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9361,10 +9355,10 @@
         <v>205</v>
       </c>
       <c r="D376" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E376" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9378,10 +9372,10 @@
         <v>123</v>
       </c>
       <c r="D377" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E377" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9395,10 +9389,10 @@
         <v>79</v>
       </c>
       <c r="D378" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E378" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9412,10 +9406,10 @@
         <v>206</v>
       </c>
       <c r="D379" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E379" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9429,10 +9423,10 @@
         <v>117</v>
       </c>
       <c r="D380" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E380" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9446,10 +9440,10 @@
         <v>111</v>
       </c>
       <c r="D381" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E381" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9463,10 +9457,10 @@
         <v>49</v>
       </c>
       <c r="D382" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E382" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9480,10 +9474,10 @@
         <v>103</v>
       </c>
       <c r="D383" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E383" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9497,10 +9491,10 @@
         <v>55</v>
       </c>
       <c r="D384" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E384" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9514,10 +9508,10 @@
         <v>71</v>
       </c>
       <c r="D385" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E385" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9531,10 +9525,10 @@
         <v>63</v>
       </c>
       <c r="D386" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E386" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9548,10 +9542,10 @@
         <v>105</v>
       </c>
       <c r="D387" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E387" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9565,10 +9559,10 @@
         <v>129</v>
       </c>
       <c r="D388" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9582,10 +9576,10 @@
         <v>67</v>
       </c>
       <c r="D389" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E389" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9599,10 +9593,10 @@
         <v>81</v>
       </c>
       <c r="D390" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E390" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9616,10 +9610,10 @@
         <v>57</v>
       </c>
       <c r="D391" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E391" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9633,10 +9627,10 @@
         <v>133</v>
       </c>
       <c r="D392" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9650,10 +9644,10 @@
         <v>69</v>
       </c>
       <c r="D393" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E393" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9667,10 +9661,10 @@
         <v>91</v>
       </c>
       <c r="D394" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E394" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9684,10 +9678,10 @@
         <v>207</v>
       </c>
       <c r="D395" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E395" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9701,10 +9695,10 @@
         <v>208</v>
       </c>
       <c r="D396" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E396" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9718,10 +9712,10 @@
         <v>127</v>
       </c>
       <c r="D397" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E397" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9735,10 +9729,10 @@
         <v>65</v>
       </c>
       <c r="D398" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E398" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9752,10 +9746,10 @@
         <v>209</v>
       </c>
       <c r="D399" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E399" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9769,10 +9763,10 @@
         <v>13</v>
       </c>
       <c r="D400" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E400" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9786,10 +9780,10 @@
         <v>24</v>
       </c>
       <c r="D401" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E401" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9803,10 +9797,10 @@
         <v>210</v>
       </c>
       <c r="D402" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9820,10 +9814,10 @@
         <v>211</v>
       </c>
       <c r="D403" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E403" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9837,10 +9831,10 @@
         <v>212</v>
       </c>
       <c r="D404" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E404" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9854,10 +9848,10 @@
         <v>213</v>
       </c>
       <c r="D405" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E405" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -9871,10 +9865,10 @@
         <v>214</v>
       </c>
       <c r="D406" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E406" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -9888,10 +9882,10 @@
         <v>215</v>
       </c>
       <c r="D407" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E407" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -9905,10 +9899,10 @@
         <v>216</v>
       </c>
       <c r="D408" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E408" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -9922,10 +9916,10 @@
         <v>217</v>
       </c>
       <c r="D409" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E409" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -9939,10 +9933,10 @@
         <v>218</v>
       </c>
       <c r="D410" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E410" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -9956,10 +9950,10 @@
         <v>219</v>
       </c>
       <c r="D411" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E411" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -9973,10 +9967,10 @@
         <v>220</v>
       </c>
       <c r="D412" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E412" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -9990,10 +9984,10 @@
         <v>221</v>
       </c>
       <c r="D413" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E413" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10007,10 +10001,10 @@
         <v>222</v>
       </c>
       <c r="D414" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E414" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10024,10 +10018,10 @@
         <v>223</v>
       </c>
       <c r="D415" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E415" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10041,10 +10035,10 @@
         <v>224</v>
       </c>
       <c r="D416" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E416" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10058,10 +10052,10 @@
         <v>225</v>
       </c>
       <c r="D417" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E417" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10075,10 +10069,10 @@
         <v>226</v>
       </c>
       <c r="D418" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E418" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10092,10 +10086,10 @@
         <v>227</v>
       </c>
       <c r="D419" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E419" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10109,10 +10103,10 @@
         <v>228</v>
       </c>
       <c r="D420" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E420" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10126,10 +10120,10 @@
         <v>229</v>
       </c>
       <c r="D421" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E421" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10143,10 +10137,10 @@
         <v>230</v>
       </c>
       <c r="D422" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E422" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10160,10 +10154,10 @@
         <v>231</v>
       </c>
       <c r="D423" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E423" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10177,10 +10171,10 @@
         <v>232</v>
       </c>
       <c r="D424" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E424" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10194,10 +10188,10 @@
         <v>269</v>
       </c>
       <c r="D425" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E425" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10211,10 +10205,10 @@
         <v>234</v>
       </c>
       <c r="D426" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E426" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10228,10 +10222,10 @@
         <v>235</v>
       </c>
       <c r="D427" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E427" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10245,10 +10239,10 @@
         <v>236</v>
       </c>
       <c r="D428" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E428" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10262,10 +10256,10 @@
         <v>237</v>
       </c>
       <c r="D429" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E429" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10279,10 +10273,10 @@
         <v>238</v>
       </c>
       <c r="D430" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E430" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10296,10 +10290,10 @@
         <v>239</v>
       </c>
       <c r="D431" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E431" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10313,10 +10307,10 @@
         <v>240</v>
       </c>
       <c r="D432" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E432" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10330,10 +10324,10 @@
         <v>241</v>
       </c>
       <c r="D433" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E433" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10347,10 +10341,10 @@
         <v>32</v>
       </c>
       <c r="D434" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E434" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10364,10 +10358,10 @@
         <v>242</v>
       </c>
       <c r="D435" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E435" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10381,10 +10375,10 @@
         <v>243</v>
       </c>
       <c r="D436" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E436" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10398,10 +10392,10 @@
         <v>244</v>
       </c>
       <c r="D437" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E437" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10415,10 +10409,10 @@
         <v>245</v>
       </c>
       <c r="D438" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E438" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10432,10 +10426,10 @@
         <v>246</v>
       </c>
       <c r="D439" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E439" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10449,10 +10443,10 @@
         <v>183</v>
       </c>
       <c r="D440" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E440" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10466,10 +10460,10 @@
         <v>177</v>
       </c>
       <c r="D441" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E441" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10483,10 +10477,10 @@
         <v>185</v>
       </c>
       <c r="D442" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E442" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10500,10 +10494,10 @@
         <v>186</v>
       </c>
       <c r="D443" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E443" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10517,10 +10511,10 @@
         <v>187</v>
       </c>
       <c r="D444" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E444" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10534,10 +10528,10 @@
         <v>188</v>
       </c>
       <c r="D445" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E445" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10551,10 +10545,10 @@
         <v>189</v>
       </c>
       <c r="D446" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E446" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10568,10 +10562,10 @@
         <v>190</v>
       </c>
       <c r="D447" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E447" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10585,10 +10579,10 @@
         <v>191</v>
       </c>
       <c r="D448" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E448" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10602,10 +10596,10 @@
         <v>192</v>
       </c>
       <c r="D449" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E449" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10619,10 +10613,10 @@
         <v>193</v>
       </c>
       <c r="D450" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E450" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10636,10 +10630,10 @@
         <v>194</v>
       </c>
       <c r="D451" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E451" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10653,10 +10647,10 @@
         <v>241</v>
       </c>
       <c r="D452" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E452" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10670,10 +10664,10 @@
         <v>195</v>
       </c>
       <c r="D453" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E453" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -10687,10 +10681,10 @@
         <v>196</v>
       </c>
       <c r="D454" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E454" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10704,10 +10698,10 @@
         <v>197</v>
       </c>
       <c r="D455" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E455" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10721,10 +10715,10 @@
         <v>58</v>
       </c>
       <c r="D456" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E456" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10738,10 +10732,10 @@
         <v>198</v>
       </c>
       <c r="D457" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10755,10 +10749,10 @@
         <v>199</v>
       </c>
       <c r="D458" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10772,10 +10766,10 @@
         <v>200</v>
       </c>
       <c r="D459" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10789,10 +10783,10 @@
         <v>201</v>
       </c>
       <c r="D460" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -10803,13 +10797,13 @@
         <v>22</v>
       </c>
       <c r="C461" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="D461" t="s">
-        <v>532</v>
+        <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -10823,10 +10817,10 @@
         <v>203</v>
       </c>
       <c r="D462" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10840,10 +10834,10 @@
         <v>204</v>
       </c>
       <c r="D463" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -10857,10 +10851,10 @@
         <v>14</v>
       </c>
       <c r="D464" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E464" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -10874,10 +10868,10 @@
         <v>25</v>
       </c>
       <c r="D465" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E465" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -10891,10 +10885,10 @@
         <v>33</v>
       </c>
       <c r="D466" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E466" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -10908,10 +10902,10 @@
         <v>147</v>
       </c>
       <c r="D467" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E467" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -10925,10 +10919,10 @@
         <v>148</v>
       </c>
       <c r="D468" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E468" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -10942,10 +10936,10 @@
         <v>149</v>
       </c>
       <c r="D469" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E469" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -10959,10 +10953,10 @@
         <v>150</v>
       </c>
       <c r="D470" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E470" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -10976,10 +10970,10 @@
         <v>151</v>
       </c>
       <c r="D471" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E471" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -10993,10 +10987,10 @@
         <v>152</v>
       </c>
       <c r="D472" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E472" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11010,10 +11004,10 @@
         <v>153</v>
       </c>
       <c r="D473" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E473" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11027,10 +11021,10 @@
         <v>154</v>
       </c>
       <c r="D474" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E474" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11044,10 +11038,10 @@
         <v>155</v>
       </c>
       <c r="D475" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E475" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11061,10 +11055,10 @@
         <v>156</v>
       </c>
       <c r="D476" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E476" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11078,10 +11072,10 @@
         <v>157</v>
       </c>
       <c r="D477" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E477" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11095,10 +11089,10 @@
         <v>158</v>
       </c>
       <c r="D478" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E478" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11112,10 +11106,10 @@
         <v>159</v>
       </c>
       <c r="D479" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E479" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11129,10 +11123,10 @@
         <v>160</v>
       </c>
       <c r="D480" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E480" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11146,10 +11140,10 @@
         <v>161</v>
       </c>
       <c r="D481" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E481" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11163,10 +11157,10 @@
         <v>162</v>
       </c>
       <c r="D482" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E482" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11180,10 +11174,10 @@
         <v>163</v>
       </c>
       <c r="D483" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E483" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11197,10 +11191,10 @@
         <v>164</v>
       </c>
       <c r="D484" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E484" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11214,10 +11208,10 @@
         <v>165</v>
       </c>
       <c r="D485" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E485" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11231,10 +11225,10 @@
         <v>166</v>
       </c>
       <c r="D486" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E486" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11248,10 +11242,10 @@
         <v>167</v>
       </c>
       <c r="D487" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E487" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11265,10 +11259,10 @@
         <v>168</v>
       </c>
       <c r="D488" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E488" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11282,10 +11276,10 @@
         <v>169</v>
       </c>
       <c r="D489" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E489" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11299,10 +11293,10 @@
         <v>170</v>
       </c>
       <c r="D490" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E490" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11316,10 +11310,10 @@
         <v>171</v>
       </c>
       <c r="D491" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E491" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11333,10 +11327,10 @@
         <v>172</v>
       </c>
       <c r="D492" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E492" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11350,10 +11344,10 @@
         <v>173</v>
       </c>
       <c r="D493" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E493" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11367,10 +11361,10 @@
         <v>32</v>
       </c>
       <c r="D494" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E494" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11384,10 +11378,10 @@
         <v>176</v>
       </c>
       <c r="D495" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E495" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11401,10 +11395,10 @@
         <v>179</v>
       </c>
       <c r="D496" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E496" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11418,10 +11412,10 @@
         <v>243</v>
       </c>
       <c r="D497" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E497" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11435,10 +11429,10 @@
         <v>178</v>
       </c>
       <c r="D498" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E498" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11452,10 +11446,10 @@
         <v>242</v>
       </c>
       <c r="D499" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E499" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11469,10 +11463,10 @@
         <v>180</v>
       </c>
       <c r="D500" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E500" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11486,10 +11480,10 @@
         <v>181</v>
       </c>
       <c r="D501" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E501" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11503,10 +11497,10 @@
         <v>182</v>
       </c>
       <c r="D502" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E502" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11520,10 +11514,10 @@
         <v>247</v>
       </c>
       <c r="D503" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E503" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11537,10 +11531,10 @@
         <v>249</v>
       </c>
       <c r="D504" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E504" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11554,10 +11548,10 @@
         <v>250</v>
       </c>
       <c r="D505" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E505" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11571,10 +11565,10 @@
         <v>251</v>
       </c>
       <c r="D506" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E506" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11588,10 +11582,10 @@
         <v>252</v>
       </c>
       <c r="D507" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E507" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11605,10 +11599,10 @@
         <v>253</v>
       </c>
       <c r="D508" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E508" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11622,10 +11616,10 @@
         <v>254</v>
       </c>
       <c r="D509" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E509" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11639,10 +11633,10 @@
         <v>255</v>
       </c>
       <c r="D510" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E510" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11656,10 +11650,10 @@
         <v>256</v>
       </c>
       <c r="D511" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E511" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11673,10 +11667,10 @@
         <v>257</v>
       </c>
       <c r="D512" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E512" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11690,10 +11684,10 @@
         <v>258</v>
       </c>
       <c r="D513" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E513" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11707,10 +11701,10 @@
         <v>259</v>
       </c>
       <c r="D514" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E514" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11724,10 +11718,10 @@
         <v>260</v>
       </c>
       <c r="D515" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E515" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11741,10 +11735,10 @@
         <v>261</v>
       </c>
       <c r="D516" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E516" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11758,10 +11752,10 @@
         <v>57</v>
       </c>
       <c r="D517" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E517" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -11775,10 +11769,10 @@
         <v>262</v>
       </c>
       <c r="D518" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E518" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11792,10 +11786,10 @@
         <v>263</v>
       </c>
       <c r="D519" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E519" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11809,10 +11803,10 @@
         <v>264</v>
       </c>
       <c r="D520" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E520" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11826,10 +11820,10 @@
         <v>265</v>
       </c>
       <c r="D521" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E521" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11843,10 +11837,10 @@
         <v>266</v>
       </c>
       <c r="D522" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E522" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -11860,10 +11854,10 @@
         <v>267</v>
       </c>
       <c r="D523" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E523" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -11877,10 +11871,10 @@
         <v>268</v>
       </c>
       <c r="D524" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E524" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -11894,10 +11888,10 @@
         <v>13</v>
       </c>
       <c r="D525" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E525" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -11911,10 +11905,10 @@
         <v>24</v>
       </c>
       <c r="D526" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E526" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -11928,10 +11922,10 @@
         <v>211</v>
       </c>
       <c r="D527" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E527" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -11945,10 +11939,10 @@
         <v>212</v>
       </c>
       <c r="D528" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E528" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -11962,10 +11956,10 @@
         <v>213</v>
       </c>
       <c r="D529" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E529" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -11979,10 +11973,10 @@
         <v>214</v>
       </c>
       <c r="D530" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E530" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -11996,10 +11990,10 @@
         <v>215</v>
       </c>
       <c r="D531" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E531" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12013,10 +12007,10 @@
         <v>216</v>
       </c>
       <c r="D532" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E532" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12030,10 +12024,10 @@
         <v>217</v>
       </c>
       <c r="D533" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E533" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12047,10 +12041,10 @@
         <v>218</v>
       </c>
       <c r="D534" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E534" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12064,10 +12058,10 @@
         <v>219</v>
       </c>
       <c r="D535" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E535" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12081,10 +12075,10 @@
         <v>220</v>
       </c>
       <c r="D536" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E536" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12098,10 +12092,10 @@
         <v>221</v>
       </c>
       <c r="D537" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E537" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12115,10 +12109,10 @@
         <v>222</v>
       </c>
       <c r="D538" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E538" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12132,10 +12126,10 @@
         <v>223</v>
       </c>
       <c r="D539" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E539" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12149,10 +12143,10 @@
         <v>224</v>
       </c>
       <c r="D540" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E540" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12166,10 +12160,10 @@
         <v>225</v>
       </c>
       <c r="D541" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E541" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -12183,10 +12177,10 @@
         <v>226</v>
       </c>
       <c r="D542" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E542" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12200,10 +12194,10 @@
         <v>227</v>
       </c>
       <c r="D543" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E543" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12217,10 +12211,10 @@
         <v>228</v>
       </c>
       <c r="D544" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E544" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12234,10 +12228,10 @@
         <v>229</v>
       </c>
       <c r="D545" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E545" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12251,10 +12245,10 @@
         <v>230</v>
       </c>
       <c r="D546" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E546" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12268,10 +12262,10 @@
         <v>231</v>
       </c>
       <c r="D547" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E547" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12285,10 +12279,10 @@
         <v>232</v>
       </c>
       <c r="D548" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E548" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12302,10 +12296,10 @@
         <v>269</v>
       </c>
       <c r="D549" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E549" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12319,10 +12313,10 @@
         <v>234</v>
       </c>
       <c r="D550" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E550" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12336,10 +12330,10 @@
         <v>235</v>
       </c>
       <c r="D551" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E551" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12353,10 +12347,10 @@
         <v>236</v>
       </c>
       <c r="D552" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E552" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12370,10 +12364,10 @@
         <v>237</v>
       </c>
       <c r="D553" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E553" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12387,10 +12381,10 @@
         <v>240</v>
       </c>
       <c r="D554" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E554" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12404,10 +12398,10 @@
         <v>244</v>
       </c>
       <c r="D555" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E555" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12421,10 +12415,10 @@
         <v>245</v>
       </c>
       <c r="D556" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E556" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12438,10 +12432,10 @@
         <v>246</v>
       </c>
       <c r="D557" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E557" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
